--- a/Parts/Parts.xlsx
+++ b/Parts/Parts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>VALUE</t>
   </si>
@@ -73,12 +73,6 @@
     <t>LABEL(S)</t>
   </si>
   <si>
-    <t>R2,R4,R6</t>
-  </si>
-  <si>
-    <t>R3,R5</t>
-  </si>
-  <si>
     <t>R9,R12,R14</t>
   </si>
   <si>
@@ -95,6 +89,39 @@
   </si>
   <si>
     <t>100k</t>
+  </si>
+  <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>3.3uF</t>
+  </si>
+  <si>
+    <t>478-3866-1-ND</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>493-3852-1-ND</t>
+  </si>
+  <si>
+    <t>R2,R3,R4,R6</t>
+  </si>
+  <si>
+    <t>R5,R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>311-3.30KFRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -178,13 +205,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -192,9 +222,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -230,6 +257,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -244,16 +274,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I12" totalsRowShown="0">
-  <autoFilter ref="B6:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I15" totalsRowShown="0">
+  <autoFilter ref="B6:I15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ITEM"/>
     <tableColumn id="8" name="Schematic"/>
     <tableColumn id="2" name="LABEL(S)"/>
-    <tableColumn id="3" name="VALUE" dataDxfId="0"/>
+    <tableColumn id="3" name="VALUE" dataDxfId="3"/>
     <tableColumn id="4" name="Digikey "/>
     <tableColumn id="6" name="UNITS"/>
-    <tableColumn id="5" name="Price"/>
+    <tableColumn id="5" name="Price" dataCellStyle="Currency"/>
     <tableColumn id="7" name="COST" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</calculatedColumnFormula>
     </tableColumn>
@@ -525,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I12"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -541,11 +571,11 @@
   <sheetData>
     <row r="3" spans="2:9">
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4">
         <f>SUM(Table1[COST])</f>
-        <v>8.43</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -553,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -582,13 +612,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
@@ -600,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -624,13 +657,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
@@ -642,77 +678,160 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0.59</v>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.1</v>
       </c>
       <c r="I10" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>1.77</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.59</v>
       </c>
       <c r="I11" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="I14" s="8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="I15" s="8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>1.26</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId2"/>
     <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Parts/Parts.xlsx
+++ b/Parts/Parts.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7760"/>
+    <workbookView xWindow="-80" yWindow="20" windowWidth="25580" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Parts-Budget" sheetId="1" r:id="rId1"/>
-    <sheet name="Schematic-sFPI-Driver" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>VALUE</t>
   </si>
@@ -122,6 +121,27 @@
   </si>
   <si>
     <t>311-3.30KFRCT-ND</t>
+  </si>
+  <si>
+    <t>Positive Adjustable Voltage Regulator</t>
+  </si>
+  <si>
+    <t>LT3080EST#TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>490-7516-1-ND</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>SPRU505C-ND</t>
   </si>
 </sst>
 </file>
@@ -221,7 +241,42 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -274,13 +329,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I15" totalsRowShown="0">
-  <autoFilter ref="B6:I15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I18" totalsRowShown="0">
+  <autoFilter ref="B6:I18"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ITEM"/>
     <tableColumn id="8" name="Schematic"/>
     <tableColumn id="2" name="LABEL(S)"/>
-    <tableColumn id="3" name="VALUE" dataDxfId="3"/>
+    <tableColumn id="3" name="VALUE" dataDxfId="6"/>
     <tableColumn id="4" name="Digikey "/>
     <tableColumn id="6" name="UNITS"/>
     <tableColumn id="5" name="Price" dataCellStyle="Currency"/>
@@ -555,15 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I15"/>
+  <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
@@ -575,7 +631,7 @@
       </c>
       <c r="I3" s="4">
         <f>SUM(Table1[COST])</f>
-        <v>10.23</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -809,16 +865,85 @@
         <v>1.26</v>
       </c>
     </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4.22</v>
+      </c>
+      <c r="I16" s="8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="I17" s="8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10.64</v>
+      </c>
+      <c r="I18" s="8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+        <v>10.64</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>30</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -828,10 +953,13 @@
     <hyperlink ref="F14" r:id="rId4"/>
     <hyperlink ref="F15" r:id="rId5"/>
     <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -839,23 +967,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Parts/Parts.xlsx
+++ b/Parts/Parts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="20" windowWidth="25580" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Parts-Budget" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>VALUE</t>
   </si>
@@ -36,45 +33,24 @@
     <t>ITEM</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>3.3k-10k</t>
-  </si>
-  <si>
-    <t>POTENTIOMETER</t>
-  </si>
-  <si>
-    <t>RESISTOR</t>
-  </si>
-  <si>
     <t>RNCF1206TKY10K0CT-ND</t>
   </si>
   <si>
-    <t>UNITS</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
     <t>LABEL(S)</t>
   </si>
   <si>
-    <t>R9,R12,R14</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -84,15 +60,9 @@
     <t>Schematic</t>
   </si>
   <si>
-    <t>CT3059-ND</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
-    <t>CAPACITOR</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -111,12 +81,6 @@
     <t>493-3852-1-ND</t>
   </si>
   <si>
-    <t>R2,R3,R4,R6</t>
-  </si>
-  <si>
-    <t>R5,R7</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -142,6 +106,162 @@
   </si>
   <si>
     <t>SPRU505C-ND</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>445-173485-1-ND</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Scanning Fabry-Perot Interferometer Parts List</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>sFPI-Driver_Schematic</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>VR2</t>
+  </si>
+  <si>
+    <t>34V</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>83A1A-B24-J15L-ND</t>
+  </si>
+  <si>
+    <t>93A1A-B28-A20L-ND</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>LT1129IST-5#PBF-ND</t>
+  </si>
+  <si>
+    <t>QF1</t>
+  </si>
+  <si>
+    <t>ATMEGA168PA-PU-ND</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>ATMEGA168P</t>
+  </si>
+  <si>
+    <t>ARDUINO</t>
+  </si>
+  <si>
+    <t>DAC1</t>
+  </si>
+  <si>
+    <t>MCP4725</t>
+  </si>
+  <si>
+    <t>MCP4725A0T-E/CHCT-ND</t>
+  </si>
+  <si>
+    <t>16 MHZ CLOCK</t>
+  </si>
+  <si>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>CTX1085-ND</t>
+  </si>
+  <si>
+    <t>Operational Amplifier</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>LT1006CN8#PBF-ND</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
   </si>
 </sst>
 </file>
@@ -151,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +299,20 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,62 +354,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -313,37 +439,31 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I18" totalsRowShown="0">
-  <autoFilter ref="B6:I18"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:H51" totalsRowShown="0">
+  <autoFilter ref="B5:H51"/>
+  <sortState ref="B6:H35">
+    <sortCondition ref="B5:B35"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" name="ITEM"/>
     <tableColumn id="8" name="Schematic"/>
-    <tableColumn id="2" name="LABEL(S)"/>
-    <tableColumn id="3" name="VALUE" dataDxfId="6"/>
+    <tableColumn id="2" name="LABEL(S)" dataDxfId="1"/>
+    <tableColumn id="3" name="VALUE" dataDxfId="0"/>
     <tableColumn id="4" name="Digikey "/>
-    <tableColumn id="6" name="UNITS"/>
     <tableColumn id="5" name="Price" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="COST" dataCellStyle="Currency">
-      <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</calculatedColumnFormula>
+    <tableColumn id="7" name="COST" dataDxfId="5" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table1[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -602,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,356 +730,1032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I18"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
-      <c r="H3" s="3" t="s">
+    <row r="1" spans="1:11" ht="56" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(Table1[COST])</f>
+        <v>133.20000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
-        <f>SUM(Table1[COST])</f>
-        <v>25.91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G7" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="H7" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="H8" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="H9" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.22</v>
+      </c>
+      <c r="H15" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="H16" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34.32</v>
+      </c>
+      <c r="H17" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34.32</v>
+      </c>
+      <c r="H18" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10.64</v>
+      </c>
+      <c r="H19" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H25" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H26" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H27" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="H29" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="H30" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H31" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H32" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H33" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H34" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H35" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H36" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H37" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="H38" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="D39" s="7"/>
+      <c r="E39" s="12"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+    </row>
+    <row r="40" spans="2:8">
+      <c r="D40" s="7"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="D41" s="7"/>
+      <c r="E41" s="12"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
+    <row r="42" spans="2:8">
+      <c r="D42" s="7"/>
+      <c r="E42" s="12"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="D43" s="7"/>
+      <c r="E43" s="12"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="I11" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
+    <row r="44" spans="2:8">
+      <c r="D44" s="7"/>
+      <c r="E44" s="12"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="D45" s="7"/>
+      <c r="E45" s="12"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
+    <row r="46" spans="2:8">
+      <c r="D46" s="7"/>
+      <c r="E46" s="12"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="D47" s="7"/>
+      <c r="E47" s="12"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="I14" s="8">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.26</v>
-      </c>
-      <c r="I15" s="8">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4.22</v>
-      </c>
-      <c r="I16" s="8">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="I17" s="8">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>10.64</v>
-      </c>
-      <c r="I18" s="8">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[UNITS]]</f>
-        <v>10.64</v>
+    <row r="48" spans="2:8">
+      <c r="D48" s="7"/>
+      <c r="E48" s="12"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="D49" s="7"/>
+      <c r="E49" s="12"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="D50" s="7"/>
+      <c r="E50" s="12"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <f>Table1[[#This Row],[Price]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F11" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F24" r:id="rId1"/>
+    <hyperlink ref="F25" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
     <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F16" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F18" r:id="rId9"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F7:F10" r:id="rId9" display="RNCF1206TKY10K0CT-ND"/>
+    <hyperlink ref="F26" r:id="rId10"/>
+    <hyperlink ref="F27" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F22" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F10" r:id="rId16"/>
+    <hyperlink ref="F11" r:id="rId17"/>
+    <hyperlink ref="F9" r:id="rId18"/>
+    <hyperlink ref="F17" r:id="rId19"/>
+    <hyperlink ref="F18" r:id="rId20"/>
+    <hyperlink ref="F16" r:id="rId21"/>
+    <hyperlink ref="F29" r:id="rId22"/>
+    <hyperlink ref="F30" r:id="rId23"/>
+    <hyperlink ref="F31" r:id="rId24"/>
+    <hyperlink ref="F32" r:id="rId25"/>
+    <hyperlink ref="F33" r:id="rId26"/>
+    <hyperlink ref="F34" r:id="rId27"/>
+    <hyperlink ref="F35" r:id="rId28"/>
+    <hyperlink ref="F36" r:id="rId29"/>
+    <hyperlink ref="F37" r:id="rId30"/>
+    <hyperlink ref="F38" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
